--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="9315"/>
+    <workbookView windowWidth="18765" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+  <si>
+    <t>灰色函数为内部函数，不对外使用</t>
+  </si>
+  <si>
+    <t>绿色列为公式列</t>
+  </si>
+  <si>
+    <t>函数设计</t>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
   <si>
     <t>函数功能</t>
   </si>
@@ -28,12 +40,12 @@
     <t>返回值</t>
   </si>
   <si>
-    <t>灰色函数为内部函数，不对外使用</t>
-  </si>
-  <si>
     <t>鼠标操作</t>
   </si>
   <si>
+    <t>instruct_mouse</t>
+  </si>
+  <si>
     <t>获取鼠标当前位置</t>
   </si>
   <si>
@@ -76,9 +88,6 @@
     <t>mouse_down</t>
   </si>
   <si>
-    <t>x,y,button</t>
-  </si>
-  <si>
     <t>在指定位置释放鼠标</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>键盘操作</t>
   </si>
   <si>
+    <t>instruct_keyborad</t>
+  </si>
+  <si>
     <t>输入字符串</t>
   </si>
   <si>
@@ -142,6 +154,9 @@
     <t>图像操作</t>
   </si>
   <si>
+    <t>instruct_pic</t>
+  </si>
+  <si>
     <t>截全屏并保存图片</t>
   </si>
   <si>
@@ -178,19 +193,151 @@
     <t>[(x,y),(x_2,y_2)]</t>
   </si>
   <si>
+    <t>匹配图片并移动（两个函数的封装）</t>
+  </si>
+  <si>
+    <t>move_to_pic_position</t>
+  </si>
+  <si>
+    <t>pic_file, duration, find_model</t>
+  </si>
+  <si>
+    <t>匹配图片并点击（两个函数的封装）</t>
+  </si>
+  <si>
+    <t>click_pic_position</t>
+  </si>
+  <si>
+    <t>click_time, click_button, pic_file, interval, duration, find_model</t>
+  </si>
+  <si>
     <t>其他指令</t>
   </si>
   <si>
+    <t>instruct_custom</t>
+  </si>
+  <si>
     <t>等待</t>
   </si>
   <si>
-    <t>图片点击指令（两个函数的封装）</t>
-  </si>
-  <si>
-    <t>instruct_pic_click</t>
-  </si>
-  <si>
-    <t>click_time, click_button, pic_file, duration</t>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait_time</t>
+  </si>
+  <si>
+    <t>指令设计</t>
+  </si>
+  <si>
+    <t>指令大类</t>
+  </si>
+  <si>
+    <t>指令名称</t>
+  </si>
+  <si>
+    <t>combox项</t>
+  </si>
+  <si>
+    <t>对应函数</t>
+  </si>
+  <si>
+    <t>对应控件</t>
+  </si>
+  <si>
+    <t>ui设置</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>使用【QSpinBox】秒，移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】</t>
+  </si>
+  <si>
+    <t>按下并拖拽</t>
+  </si>
+  <si>
+    <t>在当前位置按下【QCombox：左右键】，并使用【QSpinBox】秒拖拽至 x轴：【自定义QLabel】，y轴：【自定义QLabel】释放</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>使用【QCombox】秒移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】，并点击【QCombox：左右键】【QSpinBox】次，点击间隔时间【QSpinBox】秒</t>
+  </si>
+  <si>
+    <t>按下(不释放)</t>
+  </si>
+  <si>
+    <t>使用【QSpinBox】秒，移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】，然后按下【QCombox：左右键】不释放</t>
+  </si>
+  <si>
+    <t>释放</t>
+  </si>
+  <si>
+    <t>使用【QSpinBox】秒，移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】，然后释放【QCombox：左右键】</t>
+  </si>
+  <si>
+    <t>滚动滚轮</t>
+  </si>
+  <si>
+    <t>在 x轴：【自定义QLabel】，y轴：【自定义QLabel】，使用滚轮向【QCombox：方向】滚动【QSpinBox】像素距离</t>
+  </si>
+  <si>
+    <t>输入文本</t>
+  </si>
+  <si>
+    <t>逐词输入【QLineEdit】文本，输入间隔【QSpinBox】秒</t>
+  </si>
+  <si>
+    <t>敲击</t>
+  </si>
+  <si>
+    <t>逐个输入【QLineEdit】中的键，重复【QSpinBox】次，每次重复间隔【QSpinBox】秒</t>
+  </si>
+  <si>
+    <t>使用热键</t>
+  </si>
+  <si>
+    <t>使用【QLineEdit】热键</t>
+  </si>
+  <si>
+    <t>按下【QLineEdit】键（不释放，但不会重复输入文本）</t>
+  </si>
+  <si>
+    <t>释放【QLineEdit】键</t>
+  </si>
+  <si>
+    <t>全屏截图</t>
+  </si>
+  <si>
+    <t>全屏截图，并保存图片至【QLineEdit】</t>
+  </si>
+  <si>
+    <t>区域截图</t>
+  </si>
+  <si>
+    <t>对左上角X轴【自定义QLabel】, 左上角Y轴【自定义QLabel】, 右下角X轴【自定义QLabel】, 右下角X轴【自定义QLabel】区域截图，并保存图片至【QLineEdit】</t>
+  </si>
+  <si>
+    <t>匹配图片并移动</t>
+  </si>
+  <si>
+    <t>在屏幕上匹配【QLineEdit】图片，分别使用【QSpinBox】秒移动鼠标至【QCombox：第一个或全部】匹配位置</t>
+  </si>
+  <si>
+    <t>匹配图片并点击</t>
+  </si>
+  <si>
+    <t>在屏幕上匹配【QLineEdit】图片，分别使用【QSpinBox】秒移动鼠标至【QCombox：第一个或全部】匹配位置并点击【QCombox：左右键】【QSpinBox】次，点击间隔时间【QSpinBox】秒</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>等待时间</t>
+  </si>
+  <si>
+    <t>等待【QSpinBox】秒</t>
   </si>
 </sst>
 </file>
@@ -198,12 +345,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,21 +359,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -257,11 +403,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,61 +482,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,8 +508,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,49 +532,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,49 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,86 +722,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -565,13 +732,63 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +812,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,36 +882,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -670,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,141 +910,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,242 +1405,788 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="27.125" customWidth="1"/>
+    <col min="12" max="12" width="49.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" ht="15" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="3"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" ht="15" spans="11:11">
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" ht="15" spans="1:11">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B30</f>
+        <v>鼠标操作-移动</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(D30,D:F,2,FALSE)</f>
+        <v>x,y,duration</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f>"command_widget_"&amp;D30</f>
+        <v>command_widget_move_mouse_to_position</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B31</f>
+        <v>鼠标操作-按下并拖拽</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f t="shared" ref="E31:E45" si="0">VLOOKUP(D31,D:F,2,FALSE)</f>
+        <v>x,y,button,duration</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="shared" ref="F31:F45" si="1">"command_widget_"&amp;D31</f>
+        <v>command_widget_drag_mouse_to_position</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B32</f>
+        <v>鼠标操作-点击</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>x,y,button,clicks,interval,duration</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_mouse_click</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B33</f>
+        <v>鼠标操作-按下(不释放)</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>x,y,button,duration</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_mouse_down</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B34</f>
+        <v>鼠标操作-释放</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>x,y,button,duration</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_mouse_up</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>$A$30&amp;"-"&amp;B35</f>
+        <v>鼠标操作-滚动滚轮</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>x,y,distance</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_mouse_scroll</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>$A$36&amp;"-"&amp;B36</f>
+        <v>键盘操作-输入文本</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>message,interval</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_press_text</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>$A$36&amp;"-"&amp;B37</f>
+        <v>键盘操作-敲击</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+      <c r="E37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>keys,presses,interval</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_press_keys</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="8" t="str">
+        <f>$A$36&amp;"-"&amp;B38</f>
+        <v>键盘操作-使用热键</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>hotkeys</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_press_hotkey</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="8" t="str">
+        <f>$A$36&amp;"-"&amp;B39</f>
+        <v>键盘操作-按下(不释放)</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>key</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_press_down_key</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f>$A$36&amp;"-"&amp;B40</f>
+        <v>键盘操作-释放</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+      <c r="E40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>key</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_press_up_key</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="1" t="s">
+      <c r="B41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="8" t="str">
+        <f>$A$41&amp;"-"&amp;B41</f>
+        <v>图像操作-全屏截图</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
+      <c r="E41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>pic_file</v>
+      </c>
+      <c r="F41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_screenshot_fullscreen</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="13"/>
+      <c r="B42" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f>$A$41&amp;"-"&amp;B42</f>
+        <v>图像操作-区域截图</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
+      <c r="E42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>pic_file,region</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_screenshot_area</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13"/>
+      <c r="B43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>$A$41&amp;"-"&amp;B43</f>
+        <v>图像操作-匹配图片并移动</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>pic_file, duration, find_model</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_move_to_pic_position</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13"/>
+      <c r="B44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="8" t="str">
+        <f>$A$41&amp;"-"&amp;B44</f>
+        <v>图像操作-匹配图片并点击</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>click_time, click_button, pic_file, interval, duration, find_model</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_click_pic_position</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="8" t="str">
+        <f>$A$45&amp;"-"&amp;B45</f>
+        <v>其他-等待时间</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>wait_time</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>command_widget_wait</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B23"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18765" windowHeight="8850"/>
+    <workbookView windowWidth="19575" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -247,6 +247,9 @@
     <t>ui设置</t>
   </si>
   <si>
+    <t>class类完成情况</t>
+  </si>
+  <si>
     <t>移动</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>在 x轴：【自定义QLabel】，y轴：【自定义QLabel】，使用滚轮向【QCombox：方向】滚动【QSpinBox】像素距离</t>
   </si>
   <si>
+    <t>✓</t>
+  </si>
+  <si>
     <t>输入文本</t>
   </si>
   <si>
@@ -338,6 +344,9 @@
   </si>
   <si>
     <t>等待【QSpinBox】秒</t>
+  </si>
+  <si>
+    <t>等待时间（区间随机）</t>
   </si>
 </sst>
 </file>
@@ -345,12 +354,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +376,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF067D17"/>
       <name val="Arial Unicode MS"/>
@@ -375,53 +390,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,18 +418,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,21 +480,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,8 +510,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,6 +553,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -550,25 +571,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,145 +715,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,6 +808,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -812,22 +866,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,39 +905,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,137 +925,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,10 +1095,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1425,29 +1443,28 @@
     <col min="12" max="12" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" ht="15" spans="1:11">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" ht="15" spans="11:11">
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" ht="15" spans="1:11">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="11:11">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1758,7 +1775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>71</v>
       </c>
@@ -1779,6 +1796,9 @@
       </c>
       <c r="G29" s="8" t="s">
         <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1786,10 +1806,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B30</f>
+        <f t="shared" ref="C30:C35" si="0">$A$30&amp;"-"&amp;B30</f>
         <v>鼠标操作-移动</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1804,135 +1824,138 @@
         <v>command_widget_move_mouse_to_position</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12"/>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B31</f>
+        <f t="shared" si="0"/>
         <v>鼠标操作-按下并拖拽</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" ref="E31:E45" si="0">VLOOKUP(D31,D:F,2,FALSE)</f>
+        <f t="shared" ref="E31:E45" si="1">VLOOKUP(D31,D:F,2,FALSE)</f>
         <v>x,y,button,duration</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" ref="F31:F45" si="1">"command_widget_"&amp;D31</f>
+        <f t="shared" ref="F31:F45" si="2">"command_widget_"&amp;D31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12"/>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B32</f>
+        <f t="shared" si="0"/>
         <v>鼠标操作-点击</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x,y,button,clicks,interval,duration</v>
       </c>
       <c r="F32" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_mouse_click</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B33</f>
+        <f t="shared" si="0"/>
         <v>鼠标操作-按下(不释放)</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x,y,button,duration</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_mouse_down</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
       <c r="B34" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B34</f>
+        <f t="shared" si="0"/>
         <v>鼠标操作-释放</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x,y,button,duration</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_mouse_up</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="12"/>
       <c r="B35" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="8" t="str">
-        <f>$A$30&amp;"-"&amp;B35</f>
+        <f t="shared" si="0"/>
         <v>鼠标操作-滚动滚轮</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x,y,distance</v>
       </c>
       <c r="F35" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_mouse_scroll</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B36</f>
@@ -1942,21 +1965,24 @@
         <v>32</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D36,D:F,2,FALSE)</f>
         <v>message,interval</v>
       </c>
       <c r="F36" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_press_text</v>
       </c>
       <c r="G36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14"/>
       <c r="B37" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B37</f>
@@ -1966,21 +1992,24 @@
         <v>35</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>keys,presses,interval</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_press_keys</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C38" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B38</f>
@@ -1990,21 +2019,21 @@
         <v>43</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>hotkeys</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_press_hotkey</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B39</f>
@@ -2014,21 +2043,21 @@
         <v>38</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>key</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_press_down_key</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B40</f>
@@ -2038,23 +2067,23 @@
         <v>41</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>key</v>
       </c>
       <c r="F40" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_press_up_key</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C41" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B41</f>
@@ -2064,21 +2093,21 @@
         <v>48</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>pic_file</v>
       </c>
       <c r="F41" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B42</f>
@@ -2088,21 +2117,21 @@
         <v>51</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>pic_file,region</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_screenshot_area</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C43" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B43</f>
@@ -2112,21 +2141,21 @@
         <v>60</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>pic_file, duration, find_model</v>
       </c>
       <c r="F43" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C44" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B44</f>
@@ -2136,23 +2165,23 @@
         <v>63</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>click_time, click_button, pic_file, interval, duration, find_model</v>
       </c>
       <c r="F44" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_click_pic_position</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45" s="8" t="str">
         <f>$A$45&amp;"-"&amp;B45</f>
@@ -2162,15 +2191,45 @@
         <v>68</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>command_widget_wait</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="8" t="str">
+        <f>$A$45&amp;"-"&amp;B46</f>
+        <v>其他-等待时间（区间随机）</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="8" t="str">
+        <f>VLOOKUP(D46,D:F,2,FALSE)</f>
+        <v>wait_time</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f>"command_widget_"&amp;D46</f>
+        <v>command_widget_wait</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -256,6 +256,9 @@
     <t>使用【QSpinBox】秒，移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】</t>
   </si>
   <si>
+    <t>✓</t>
+  </si>
+  <si>
     <t>按下并拖拽</t>
   </si>
   <si>
@@ -284,9 +287,6 @@
   </si>
   <si>
     <t>在 x轴：【自定义QLabel】，y轴：【自定义QLabel】，使用滚轮向【QCombox：方向】滚动【QSpinBox】像素距离</t>
-  </si>
-  <si>
-    <t>✓</t>
   </si>
   <si>
     <t>输入文本</t>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -395,8 +395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,44 +405,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +443,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,36 +531,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -553,55 +553,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,19 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,103 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,6 +808,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -833,16 +868,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,43 +900,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,145 +913,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1435,7 +1435,8 @@
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
@@ -1801,7 +1802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="12" t="s">
         <v>8</v>
       </c>
@@ -1826,11 +1827,14 @@
       <c r="G30" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="12"/>
       <c r="B31" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1844,17 +1848,20 @@
         <v>x,y,button,duration</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" ref="F31:F45" si="2">"command_widget_"&amp;D31</f>
+        <f t="shared" ref="F31:F46" si="2">"command_widget_"&amp;D31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="12"/>
       <c r="B32" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1872,13 +1879,16 @@
         <v>command_widget_mouse_click</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="12"/>
       <c r="B33" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1896,13 +1906,16 @@
         <v>command_widget_mouse_down</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="12"/>
       <c r="B34" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1920,13 +1933,16 @@
         <v>command_widget_mouse_up</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="12"/>
       <c r="B35" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1944,10 +1960,10 @@
         <v>command_widget_mouse_scroll</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1976,7 +1992,7 @@
         <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2003,10 +2019,10 @@
         <v>94</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="14"/>
       <c r="B38" s="8" t="s">
         <v>95</v>
@@ -2029,11 +2045,14 @@
       <c r="G38" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="14"/>
       <c r="B39" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B39</f>
@@ -2053,11 +2072,14 @@
       <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="14"/>
       <c r="B40" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B40</f>
@@ -2076,6 +2098,9 @@
       </c>
       <c r="G40" s="8" t="s">
         <v>98</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2202,7 +2227,7 @@
         <v>109</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2224,12 +2249,12 @@
         <v>wait_time</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f>"command_widget_"&amp;D46</f>
+        <f t="shared" si="2"/>
         <v>command_widget_wait</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="13" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="9315"/>
+    <workbookView windowWidth="18765" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -172,7 +172,7 @@
     <t>screenshot_area</t>
   </si>
   <si>
-    <t>pic_file,region</t>
+    <t>pic_file,area</t>
   </si>
   <si>
     <t>获得在屏幕上第一个找到的文件图片的中心点坐标</t>
@@ -208,7 +208,7 @@
     <t>click_pic_position</t>
   </si>
   <si>
-    <t>click_time, click_button, pic_file, interval, duration, find_model</t>
+    <t>clicks, button, pic_file, interval, duration, find_model</t>
   </si>
   <si>
     <t>其他指令</t>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -389,7 +389,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,7 +435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,7 +448,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -426,91 +485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,6 +508,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -553,73 +553,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,109 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,56 +810,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -897,6 +847,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -905,6 +870,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +925,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,8 +1425,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1437,6 +1437,7 @@
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="33.875" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
@@ -1444,24 +1445,24 @@
     <col min="12" max="12" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="11:11">
+    <row r="3" ht="15" spans="11:11">
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="14" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2129,11 @@
       <c r="G41" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="14"/>
       <c r="B42" s="8" t="s">
         <v>101</v>
@@ -2143,7 +2147,7 @@
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>pic_file,region</v>
+        <v>pic_file,area</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2152,8 +2156,11 @@
       <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="14"/>
       <c r="B43" s="8" t="s">
         <v>103</v>
@@ -2176,8 +2183,11 @@
       <c r="G43" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="14"/>
       <c r="B44" s="8" t="s">
         <v>105</v>
@@ -2191,7 +2201,7 @@
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>click_time, click_button, pic_file, interval, duration, find_model</v>
+        <v>clicks, button, pic_file, interval, duration, find_model</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2199,6 +2209,9 @@
       </c>
       <c r="G44" s="8" t="s">
         <v>106</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:8">

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -347,6 +347,75 @@
   </si>
   <si>
     <t>等待时间（区间随机）</t>
+  </si>
+  <si>
+    <t>command_widget_wait_random</t>
+  </si>
+  <si>
+    <t>combox项:{function:对应函数, widget:对应控件}</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>鼠标操作-移动</t>
+  </si>
+  <si>
+    <t>':{'function':'</t>
+  </si>
+  <si>
+    <t>','widget':'</t>
+  </si>
+  <si>
+    <t>'},</t>
+  </si>
+  <si>
+    <t>鼠标操作-按下并拖拽</t>
+  </si>
+  <si>
+    <t>鼠标操作-点击</t>
+  </si>
+  <si>
+    <t>鼠标操作-按下(不释放)</t>
+  </si>
+  <si>
+    <t>鼠标操作-释放</t>
+  </si>
+  <si>
+    <t>鼠标操作-滚动滚轮</t>
+  </si>
+  <si>
+    <t>键盘操作-输入文本</t>
+  </si>
+  <si>
+    <t>键盘操作-敲击</t>
+  </si>
+  <si>
+    <t>键盘操作-使用热键</t>
+  </si>
+  <si>
+    <t>键盘操作-按下(不释放)</t>
+  </si>
+  <si>
+    <t>键盘操作-释放</t>
+  </si>
+  <si>
+    <t>图像操作-全屏截图</t>
+  </si>
+  <si>
+    <t>图像操作-区域截图</t>
+  </si>
+  <si>
+    <t>图像操作-匹配图片并移动</t>
+  </si>
+  <si>
+    <t>图像操作-匹配图片并点击</t>
+  </si>
+  <si>
+    <t>其他-等待时间</t>
+  </si>
+  <si>
+    <t>其他-等待时间（区间随机）</t>
   </si>
 </sst>
 </file>
@@ -354,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -388,8 +457,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,18 +474,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,16 +516,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,22 +539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,17 +561,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,8 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +595,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,19 +622,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,163 +808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +893,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -832,41 +922,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,13 +966,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,10 +988,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,16 +1000,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,119 +1018,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,7 +1176,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1450,23 +1531,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="K1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="15" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="K2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" ht="15" spans="11:11">
-      <c r="K3" s="15"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" ht="15" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -2040,7 +2121,7 @@
         <v>hotkeys</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"command_widget_"&amp;D38</f>
         <v>command_widget_press_hotkey</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -2233,7 +2314,7 @@
         <v>wait_time</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"command_widget_"&amp;D45</f>
         <v>command_widget_wait</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -2261,13 +2342,510 @@
         <f>VLOOKUP(D46,D:F,2,FALSE)</f>
         <v>wait_time</v>
       </c>
-      <c r="F46" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>command_widget_wait</v>
+      <c r="F46" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="13" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="str">
+        <f>D30</f>
+        <v>move_mouse_to_position</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="str">
+        <f>F30</f>
+        <v>command_widget_move_mouse_to_position</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" t="str">
+        <f>B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53&amp;H53</f>
+        <v>'鼠标操作-移动':{'function':'move_mouse_to_position','widget':'command_widget_move_mouse_to_position'},</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ref="E54:E69" si="3">D31</f>
+        <v>drag_mouse_to_position</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" ref="G54:G69" si="4">F31</f>
+        <v>command_widget_drag_mouse_to_position</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" ref="I54:I69" si="5">B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54&amp;H54</f>
+        <v>'鼠标操作-按下并拖拽':{'function':'drag_mouse_to_position','widget':'command_widget_drag_mouse_to_position'},</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse_click</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_mouse_click</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="5"/>
+        <v>'鼠标操作-点击':{'function':'mouse_click','widget':'command_widget_mouse_click'},</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse_down</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_mouse_down</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="5"/>
+        <v>'鼠标操作-按下(不释放)':{'function':'mouse_down','widget':'command_widget_mouse_down'},</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse_up</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_mouse_up</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="5"/>
+        <v>'鼠标操作-释放':{'function':'mouse_up','widget':'command_widget_mouse_up'},</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="3"/>
+        <v>mouse_scroll</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_mouse_scroll</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="5"/>
+        <v>'鼠标操作-滚动滚轮':{'function':'mouse_scroll','widget':'command_widget_mouse_scroll'},</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="3"/>
+        <v>press_text</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_press_text</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="5"/>
+        <v>'键盘操作-输入文本':{'function':'press_text','widget':'command_widget_press_text'},</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="3"/>
+        <v>press_keys</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_press_keys</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="5"/>
+        <v>'键盘操作-敲击':{'function':'press_keys','widget':'command_widget_press_keys'},</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="3"/>
+        <v>press_hotkey</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_press_hotkey</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="5"/>
+        <v>'键盘操作-使用热键':{'function':'press_hotkey','widget':'command_widget_press_hotkey'},</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="3"/>
+        <v>press_down_key</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_press_down_key</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="5"/>
+        <v>'键盘操作-按下(不释放)':{'function':'press_down_key','widget':'command_widget_press_down_key'},</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="3"/>
+        <v>press_up_key</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_press_up_key</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="5"/>
+        <v>'键盘操作-释放':{'function':'press_up_key','widget':'command_widget_press_up_key'},</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="3"/>
+        <v>screenshot_fullscreen</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_screenshot_fullscreen</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="5"/>
+        <v>'图像操作-全屏截图':{'function':'screenshot_fullscreen','widget':'command_widget_screenshot_fullscreen'},</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="3"/>
+        <v>screenshot_area</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_screenshot_area</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="5"/>
+        <v>'图像操作-区域截图':{'function':'screenshot_area','widget':'command_widget_screenshot_area'},</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="3"/>
+        <v>move_to_pic_position</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_move_to_pic_position</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="5"/>
+        <v>'图像操作-匹配图片并移动':{'function':'move_to_pic_position','widget':'command_widget_move_to_pic_position'},</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="3"/>
+        <v>click_pic_position</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_click_pic_position</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="5"/>
+        <v>'图像操作-匹配图片并点击':{'function':'click_pic_position','widget':'command_widget_click_pic_position'},</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="3"/>
+        <v>wait</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_wait</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="5"/>
+        <v>'其他-等待时间':{'function':'wait','widget':'command_widget_wait'},</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="3"/>
+        <v>wait</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="4"/>
+        <v>command_widget_wait_random</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="5"/>
+        <v>'其他-等待时间（区间随机）':{'function':'wait','widget':'command_widget_wait_random'},</v>
       </c>
     </row>
   </sheetData>

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18765" windowHeight="8850"/>
+    <workbookView windowWidth="19575" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -40,6 +40,9 @@
     <t>返回值</t>
   </si>
   <si>
+    <t>完整函数传参</t>
+  </si>
+  <si>
     <t>鼠标操作</t>
   </si>
   <si>
@@ -49,12 +52,15 @@
     <t>获取鼠标当前位置</t>
   </si>
   <si>
-    <t>get_mouse_position()</t>
+    <t>get_mouse_position</t>
   </si>
   <si>
     <t>x,y</t>
   </si>
   <si>
+    <t>instruct_mouse.get_mouse_position()</t>
+  </si>
+  <si>
     <t>移动鼠标至指定坐标轴</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>x,y,duration</t>
   </si>
   <si>
+    <t>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</t>
+  </si>
+  <si>
     <t>按下鼠标键，拖拽至指定坐标轴</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>x,y,button,duration</t>
   </si>
   <si>
+    <t>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</t>
+  </si>
+  <si>
     <t>在指定位置点击鼠标</t>
   </si>
   <si>
@@ -82,18 +94,27 @@
     <t>x,y,button,clicks,interval,duration</t>
   </si>
   <si>
+    <t>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</t>
+  </si>
+  <si>
     <t>在指定位置按下鼠标</t>
   </si>
   <si>
     <t>mouse_down</t>
   </si>
   <si>
+    <t>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</t>
+  </si>
+  <si>
     <t>在指定位置释放鼠标</t>
   </si>
   <si>
     <t>mouse_up</t>
   </si>
   <si>
+    <t>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</t>
+  </si>
+  <si>
     <t>在指定位置滚动滚轮</t>
   </si>
   <si>
@@ -103,10 +124,13 @@
     <t>x,y,distance</t>
   </si>
   <si>
+    <t>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</t>
+  </si>
+  <si>
     <t>键盘操作</t>
   </si>
   <si>
-    <t>instruct_keyborad</t>
+    <t>instruct_keyboard</t>
   </si>
   <si>
     <t>输入字符串</t>
@@ -118,6 +142,9 @@
     <t>message,interval</t>
   </si>
   <si>
+    <t>instruct_keyboard.press_text(message=message,interval=interval)</t>
+  </si>
+  <si>
     <t>敲击指定键</t>
   </si>
   <si>
@@ -127,6 +154,9 @@
     <t>keys,presses,interval</t>
   </si>
   <si>
+    <t>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</t>
+  </si>
+  <si>
     <t>按下指定按键</t>
   </si>
   <si>
@@ -136,12 +166,18 @@
     <t>key</t>
   </si>
   <si>
+    <t>instruct_keyboard.press_down_key(key=key)</t>
+  </si>
+  <si>
     <t>释放指定按键</t>
   </si>
   <si>
     <t>press_up_key</t>
   </si>
   <si>
+    <t>instruct_keyboard.press_up_key(key=key)</t>
+  </si>
+  <si>
     <t>按下组合键</t>
   </si>
   <si>
@@ -151,6 +187,9 @@
     <t>hotkeys</t>
   </si>
   <si>
+    <t>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</t>
+  </si>
+  <si>
     <t>图像操作</t>
   </si>
   <si>
@@ -166,6 +205,9 @@
     <t>pic_file</t>
   </si>
   <si>
+    <t>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</t>
+  </si>
+  <si>
     <t>指定区域截图并保存图片</t>
   </si>
   <si>
@@ -175,6 +217,9 @@
     <t>pic_file,area</t>
   </si>
   <si>
+    <t>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</t>
+  </si>
+  <si>
     <t>获得在屏幕上第一个找到的文件图片的中心点坐标</t>
   </si>
   <si>
@@ -184,6 +229,9 @@
     <t>pic_file,confidence</t>
   </si>
   <si>
+    <t>instruct_pic.search_pic_first_position(pic_file=pic_file,confidence=confidence)</t>
+  </si>
+  <si>
     <t>获得在屏幕上所有找到的文件图片的中心点坐标</t>
   </si>
   <si>
@@ -193,6 +241,9 @@
     <t>[(x,y),(x_2,y_2)]</t>
   </si>
   <si>
+    <t>instruct_pic.search_pic_all_position(pic_file=pic_file,confidence=confidence)</t>
+  </si>
+  <si>
     <t>匹配图片并移动（两个函数的封装）</t>
   </si>
   <si>
@@ -202,6 +253,9 @@
     <t>pic_file, duration, find_model</t>
   </si>
   <si>
+    <t>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</t>
+  </si>
+  <si>
     <t>匹配图片并点击（两个函数的封装）</t>
   </si>
   <si>
@@ -211,6 +265,9 @@
     <t>clicks, button, pic_file, interval, duration, find_model</t>
   </si>
   <si>
+    <t>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</t>
+  </si>
+  <si>
     <t>其他指令</t>
   </si>
   <si>
@@ -226,6 +283,9 @@
     <t>wait_time</t>
   </si>
   <si>
+    <t>instruct_custom.wait(wait_time=wait_time)</t>
+  </si>
+  <si>
     <t>指令设计</t>
   </si>
   <si>
@@ -416,6 +476,9 @@
   </si>
   <si>
     <t>其他-等待时间（区间随机）</t>
+  </si>
+  <si>
+    <t>'}}</t>
   </si>
 </sst>
 </file>
@@ -423,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -445,21 +508,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +539,51 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,6 +602,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -495,29 +625,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,8 +641,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,55 +658,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,31 +691,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,31 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,97 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,23 +949,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,8 +982,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,15 +1025,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,21 +1043,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -988,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,133 +1063,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,13 +1233,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1506,8 +1569,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,30 +1589,30 @@
     <col min="12" max="12" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" ht="15" spans="1:11">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" ht="15" spans="11:11">
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" ht="15" spans="1:11">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="11:11">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1566,391 +1629,462 @@
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C30" s="8" t="str">
         <f t="shared" ref="C30:C35" si="0">$A$30&amp;"-"&amp;B30</f>
         <v>鼠标操作-移动</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f>VLOOKUP(D30,D:F,2,FALSE)</f>
+        <f>VLOOKUP(D30,D:G,2,FALSE)</f>
         <v>x,y,duration</v>
       </c>
       <c r="F30" s="8" t="str">
+        <f>VLOOKUP(D30,D:G,4,FALSE)</f>
+        <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
+      </c>
+      <c r="G30" s="8" t="str">
         <f>"command_widget_"&amp;D30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="12"/>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下并拖拽</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" ref="E31:E45" si="1">VLOOKUP(D31,D:F,2,FALSE)</f>
+        <f t="shared" ref="E31:E46" si="1">VLOOKUP(D31,D:G,2,FALSE)</f>
         <v>x,y,button,duration</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" ref="F31:F46" si="2">"command_widget_"&amp;D31</f>
+        <f t="shared" ref="F31:F46" si="2">VLOOKUP(D31,D:G,4,FALSE)</f>
+        <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" ref="G31:G46" si="3">"command_widget_"&amp;D31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="12"/>
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-点击</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1958,26 +2092,30 @@
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</v>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_mouse_click</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="12"/>
       <c r="B33" s="8" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下(不释放)</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E33" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1985,26 +2123,30 @@
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</v>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_mouse_down</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="12"/>
       <c r="B34" s="8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-释放</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E34" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2012,26 +2154,30 @@
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</v>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_mouse_up</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="12"/>
       <c r="B35" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-滚动滚轮</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2039,55 +2185,63 @@
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</v>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_mouse_scroll</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="14" t="s">
-        <v>29</v>
+      <c r="H35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C36" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B36</f>
         <v>键盘操作-输入文本</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f>VLOOKUP(D36,D:F,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>message,interval</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_press_text</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="14"/>
+      <c r="H36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13"/>
       <c r="B37" s="8" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C37" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B37</f>
         <v>键盘操作-敲击</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2095,53 +2249,61 @@
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_press_keys</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="14"/>
+      <c r="H37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C38" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B38</f>
         <v>键盘操作-使用热键</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>hotkeys</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f>"command_widget_"&amp;D38</f>
+        <f t="shared" si="2"/>
+        <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_press_hotkey</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="14"/>
+      <c r="H38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="13"/>
       <c r="B39" s="8" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B39</f>
         <v>键盘操作-按下(不释放)</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E39" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2149,26 +2311,30 @@
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_keyboard.press_down_key(key=key)</v>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_press_down_key</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="14"/>
+      <c r="H39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13"/>
       <c r="B40" s="8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C40" s="8" t="str">
         <f>$A$36&amp;"-"&amp;B40</f>
         <v>键盘操作-释放</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E40" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2176,28 +2342,32 @@
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_keyboard.press_up_key(key=key)</v>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_press_up_key</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="14" t="s">
-        <v>45</v>
+      <c r="H40" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C41" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B41</f>
         <v>图像操作-全屏截图</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E41" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2205,26 +2375,30 @@
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="14"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="13"/>
       <c r="B42" s="8" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C42" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B42</f>
         <v>图像操作-区域截图</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E42" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2232,26 +2406,30 @@
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_screenshot_area</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="14"/>
+      <c r="H42" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="13"/>
       <c r="B43" s="8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C43" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B43</f>
         <v>图像操作-匹配图片并移动</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E43" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2259,26 +2437,30 @@
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="14"/>
+      <c r="H43" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13"/>
       <c r="B44" s="8" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C44" s="8" t="str">
         <f>$A$41&amp;"-"&amp;B44</f>
         <v>图像操作-匹配图片并点击</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E44" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2286,566 +2468,578 @@
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="2"/>
+        <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_click_pic_position</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C45" s="8" t="str">
         <f>$A$45&amp;"-"&amp;B45</f>
         <v>其他-等待时间</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
       <c r="F45" s="8" t="str">
-        <f>"command_widget_"&amp;D45</f>
+        <f t="shared" si="2"/>
+        <v>instruct_custom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f t="shared" si="3"/>
         <v>command_widget_wait</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C46" s="8" t="str">
         <f>$A$45&amp;"-"&amp;B46</f>
         <v>其他-等待时间（区间随机）</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f>VLOOKUP(D46,D:F,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="13" t="s">
-        <v>80</v>
+      <c r="F46" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>instruct_custom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E53" t="str">
-        <f>D30</f>
-        <v>move_mouse_to_position</v>
+        <f>F30</f>
+        <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G53" t="str">
-        <f>F30</f>
+        <f>G30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I53" t="str">
         <f>B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53&amp;H53</f>
-        <v>'鼠标操作-移动':{'function':'move_mouse_to_position','widget':'command_widget_move_mouse_to_position'},</v>
+        <v>'鼠标操作-移动':{'function':'instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" ref="E54:E69" si="3">D31</f>
-        <v>drag_mouse_to_position</v>
+        <f t="shared" ref="E54:E69" si="4">F31</f>
+        <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" ref="G54:G69" si="4">F31</f>
+        <f t="shared" ref="G54:G69" si="5">G31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" ref="I54:I69" si="5">B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54&amp;H54</f>
-        <v>'鼠标操作-按下并拖拽':{'function':'drag_mouse_to_position','widget':'command_widget_drag_mouse_to_position'},</v>
+        <f t="shared" ref="I54:I69" si="6">B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54&amp;H54</f>
+        <v>'鼠标操作-按下并拖拽':{'function':'instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse_click</v>
+        <f t="shared" si="4"/>
+        <v>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_mouse_click</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="5"/>
-        <v>'鼠标操作-点击':{'function':'mouse_click','widget':'command_widget_mouse_click'},</v>
+        <f t="shared" si="6"/>
+        <v>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)','widget':'command_widget_mouse_click'},</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse_down</v>
+        <f t="shared" si="4"/>
+        <v>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_mouse_down</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="5"/>
-        <v>'鼠标操作-按下(不释放)':{'function':'mouse_down','widget':'command_widget_mouse_down'},</v>
+        <f t="shared" si="6"/>
+        <v>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)','widget':'command_widget_mouse_down'},</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse_up</v>
+        <f t="shared" si="4"/>
+        <v>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_mouse_up</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="5"/>
-        <v>'鼠标操作-释放':{'function':'mouse_up','widget':'command_widget_mouse_up'},</v>
+        <f t="shared" si="6"/>
+        <v>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)','widget':'command_widget_mouse_up'},</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="3"/>
-        <v>mouse_scroll</v>
+        <f t="shared" si="4"/>
+        <v>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_mouse_scroll</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="5"/>
-        <v>'鼠标操作-滚动滚轮':{'function':'mouse_scroll','widget':'command_widget_mouse_scroll'},</v>
+        <f t="shared" si="6"/>
+        <v>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)','widget':'command_widget_mouse_scroll'},</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="3"/>
-        <v>press_text</v>
+        <f t="shared" si="4"/>
+        <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_press_text</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="5"/>
-        <v>'键盘操作-输入文本':{'function':'press_text','widget':'command_widget_press_text'},</v>
+        <f t="shared" si="6"/>
+        <v>'键盘操作-输入文本':{'function':'instruct_keyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="3"/>
-        <v>press_keys</v>
+        <f t="shared" si="4"/>
+        <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_press_keys</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="5"/>
-        <v>'键盘操作-敲击':{'function':'press_keys','widget':'command_widget_press_keys'},</v>
+        <f t="shared" si="6"/>
+        <v>'键盘操作-敲击':{'function':'instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="B61" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="3"/>
-        <v>press_hotkey</v>
+        <f t="shared" si="4"/>
+        <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_press_hotkey</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="5"/>
-        <v>'键盘操作-使用热键':{'function':'press_hotkey','widget':'command_widget_press_hotkey'},</v>
+        <f t="shared" si="6"/>
+        <v>'键盘操作-使用热键':{'function':'instruct_keyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="B62" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="3"/>
-        <v>press_down_key</v>
+        <f t="shared" si="4"/>
+        <v>instruct_keyboard.press_down_key(key=key)</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_press_down_key</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="5"/>
-        <v>'键盘操作-按下(不释放)':{'function':'press_down_key','widget':'command_widget_press_down_key'},</v>
+        <f t="shared" si="6"/>
+        <v>'键盘操作-按下(不释放)':{'function':'instruct_keyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="3"/>
-        <v>press_up_key</v>
+        <f t="shared" si="4"/>
+        <v>instruct_keyboard.press_up_key(key=key)</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_press_up_key</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="5"/>
-        <v>'键盘操作-释放':{'function':'press_up_key','widget':'command_widget_press_up_key'},</v>
+        <f t="shared" si="6"/>
+        <v>'键盘操作-释放':{'function':'instruct_keyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="3"/>
-        <v>screenshot_fullscreen</v>
+        <f t="shared" si="4"/>
+        <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="5"/>
-        <v>'图像操作-全屏截图':{'function':'screenshot_fullscreen','widget':'command_widget_screenshot_fullscreen'},</v>
+        <f t="shared" si="6"/>
+        <v>'图像操作-全屏截图':{'function':'instruct_pic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="3"/>
-        <v>screenshot_area</v>
+        <f t="shared" si="4"/>
+        <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_screenshot_area</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="5"/>
-        <v>'图像操作-区域截图':{'function':'screenshot_area','widget':'command_widget_screenshot_area'},</v>
+        <f t="shared" si="6"/>
+        <v>'图像操作-区域截图':{'function':'instruct_pic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="3"/>
-        <v>move_to_pic_position</v>
+        <f t="shared" si="4"/>
+        <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="5"/>
-        <v>'图像操作-匹配图片并移动':{'function':'move_to_pic_position','widget':'command_widget_move_to_pic_position'},</v>
+        <f t="shared" si="6"/>
+        <v>'图像操作-匹配图片并移动':{'function':'instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="B67" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="3"/>
-        <v>click_pic_position</v>
+        <f t="shared" si="4"/>
+        <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_click_pic_position</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="5"/>
-        <v>'图像操作-匹配图片并点击':{'function':'click_pic_position','widget':'command_widget_click_pic_position'},</v>
+        <f t="shared" si="6"/>
+        <v>'图像操作-匹配图片并点击':{'function':'instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</v>
       </c>
     </row>
     <row r="68" spans="2:9">
       <c r="B68" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>wait</v>
+        <f t="shared" si="4"/>
+        <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_wait</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="5"/>
-        <v>'其他-等待时间':{'function':'wait','widget':'command_widget_wait'},</v>
+        <f t="shared" si="6"/>
+        <v>'其他-等待时间':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="17" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>wait</v>
+        <f t="shared" si="4"/>
+        <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>command_widget_wait_random</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="5"/>
-        <v>'其他-等待时间（区间随机）':{'function':'wait','widget':'command_widget_wait_random'},</v>
+        <f t="shared" si="6"/>
+        <v>'其他-等待时间（区间随机）':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</v>
       </c>
     </row>
   </sheetData>

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19575" windowHeight="9315"/>
+    <workbookView windowWidth="18765" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A:$A</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="247">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -25,6 +29,12 @@
     <t>函数设计</t>
   </si>
   <si>
+    <t>参数对应关系</t>
+  </si>
+  <si>
+    <t>单独设置函数做参数转换，将config参数转换为默认参数项</t>
+  </si>
+  <si>
     <t>类名</t>
   </si>
   <si>
@@ -43,6 +53,15 @@
     <t>完整函数传参</t>
   </si>
   <si>
+    <t>全部参数</t>
+  </si>
+  <si>
+    <t>全局默认参数</t>
+  </si>
+  <si>
+    <t>config中的参数</t>
+  </si>
+  <si>
     <t>鼠标操作</t>
   </si>
   <si>
@@ -61,6 +80,18 @@
     <t>instruct_mouse.get_mouse_position()</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>default_duration: float = 0.25  # 默认移动所需时间</t>
+  </si>
+  <si>
+    <t>duration = 0.25</t>
+  </si>
+  <si>
     <t>移动鼠标至指定坐标轴</t>
   </si>
   <si>
@@ -73,6 +104,15 @@
     <t>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>default_button = '左键'  # 默认鼠标按键</t>
+  </si>
+  <si>
+    <t>button = 左键</t>
+  </si>
+  <si>
     <t>按下鼠标键，拖拽至指定坐标轴</t>
   </si>
   <si>
@@ -85,46 +125,82 @@
     <t>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</t>
   </si>
   <si>
-    <t>在指定位置点击鼠标</t>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>default_interval: float = 0.1  # 默认每次点击间隔时间</t>
+  </si>
+  <si>
+    <t>interval = 0.1</t>
+  </si>
+  <si>
+    <t>点击鼠标</t>
   </si>
   <si>
     <t>mouse_click</t>
   </si>
   <si>
-    <t>x,y,button,clicks,interval,duration</t>
-  </si>
-  <si>
-    <t>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</t>
-  </si>
-  <si>
-    <t>在指定位置按下鼠标</t>
+    <t>button,clicks,interval</t>
+  </si>
+  <si>
+    <t>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</t>
+  </si>
+  <si>
+    <t>clicks</t>
+  </si>
+  <si>
+    <t>default_clicks: int = 1  # 默认点击次数</t>
+  </si>
+  <si>
+    <t>clicks = 1</t>
+  </si>
+  <si>
+    <t>按下鼠标</t>
   </si>
   <si>
     <t>mouse_down</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</t>
-  </si>
-  <si>
-    <t>在指定位置释放鼠标</t>
+    <t>instruct_mouse.mouse_down(button=button)</t>
+  </si>
+  <si>
+    <t>presses</t>
+  </si>
+  <si>
+    <t>default_presses: int = 1  # 默认重复次数</t>
+  </si>
+  <si>
+    <t>presses = 0</t>
+  </si>
+  <si>
+    <t>释放鼠标</t>
   </si>
   <si>
     <t>mouse_up</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</t>
-  </si>
-  <si>
-    <t>在指定位置滚动滚轮</t>
+    <t>instruct_mouse.mouse_up(button=button)</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>default_distance = 0  # 默认滚动距离</t>
+  </si>
+  <si>
+    <t>distance = 0</t>
+  </si>
+  <si>
+    <t>滚动滚轮</t>
   </si>
   <si>
     <t>mouse_scroll</t>
   </si>
   <si>
-    <t>x,y,distance</t>
-  </si>
-  <si>
-    <t>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</t>
+    <t>instruct_mouse.mouse_scroll(distance=distance)</t>
+  </si>
+  <si>
+    <t>default_direction = '向上'  # 默认滚动方向</t>
   </si>
   <si>
     <t>键盘操作</t>
@@ -145,6 +221,12 @@
     <t>instruct_keyboard.press_text(message=message,interval=interval)</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>default_confidence = 0.9  # 默认寻图精度</t>
+  </si>
+  <si>
     <t>敲击指定键</t>
   </si>
   <si>
@@ -157,6 +239,15 @@
     <t>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</t>
   </si>
   <si>
+    <t>find_model</t>
+  </si>
+  <si>
+    <t>default_find_model = '第一个'  # 默认寻图模式</t>
+  </si>
+  <si>
+    <t>find_model = 第一个</t>
+  </si>
+  <si>
     <t>按下指定按键</t>
   </si>
   <si>
@@ -169,6 +260,15 @@
     <t>instruct_keyboard.press_down_key(key=key)</t>
   </si>
   <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>default_area = (0, 0, 0, 0)  # 默认区域截图范围</t>
+  </si>
+  <si>
+    <t>area = (0, 0, 0, 0)</t>
+  </si>
+  <si>
     <t>释放指定按键</t>
   </si>
   <si>
@@ -178,6 +278,15 @@
     <t>instruct_keyboard.press_up_key(key=key)</t>
   </si>
   <si>
+    <t>pic_file</t>
+  </si>
+  <si>
+    <t>default_pic_file = ''  # 默认图片路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pic_file = </t>
+  </si>
+  <si>
     <t>按下组合键</t>
   </si>
   <si>
@@ -190,6 +299,15 @@
     <t>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</t>
   </si>
   <si>
+    <t>wait_time</t>
+  </si>
+  <si>
+    <t>default_wait_time = 1  # 默认等待时间</t>
+  </si>
+  <si>
+    <t>wait_time = 1.0</t>
+  </si>
+  <si>
     <t>图像操作</t>
   </si>
   <si>
@@ -202,12 +320,15 @@
     <t>screenshot_fullscreen</t>
   </si>
   <si>
-    <t>pic_file</t>
-  </si>
-  <si>
     <t>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</t>
   </si>
   <si>
+    <t>default_wait_time_min = 1  # 默认等待时间（区间最小值）</t>
+  </si>
+  <si>
+    <t>wait_time = (1.0, 1.0)</t>
+  </si>
+  <si>
     <t>指定区域截图并保存图片</t>
   </si>
   <si>
@@ -220,6 +341,9 @@
     <t>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</t>
   </si>
   <si>
+    <t>default_wait_time_max = 1  # 默认等待时间（区间最大值）</t>
+  </si>
+  <si>
     <t>获得在屏幕上第一个找到的文件图片的中心点坐标</t>
   </si>
   <si>
@@ -232,6 +356,15 @@
     <t>instruct_pic.search_pic_first_position(pic_file=pic_file,confidence=confidence)</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>default_message = ''  # 默认文本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message = </t>
+  </si>
+  <si>
     <t>获得在屏幕上所有找到的文件图片的中心点坐标</t>
   </si>
   <si>
@@ -244,6 +377,12 @@
     <t>instruct_pic.search_pic_all_position(pic_file=pic_file,confidence=confidence)</t>
   </si>
   <si>
+    <t>default_hotkeys = ''  # 默认热键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotkeys = </t>
+  </si>
+  <si>
     <t>匹配图片并移动（两个函数的封装）</t>
   </si>
   <si>
@@ -256,6 +395,15 @@
     <t>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</t>
   </si>
   <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>default_keys = ''  # 默认键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys = </t>
+  </si>
+  <si>
     <t>匹配图片并点击（两个函数的封装）</t>
   </si>
   <si>
@@ -268,6 +416,12 @@
     <t>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</t>
   </si>
   <si>
+    <t>default_key = ''  # 默认键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key = </t>
+  </si>
+  <si>
     <t>其他指令</t>
   </si>
   <si>
@@ -280,12 +434,27 @@
     <t>wait</t>
   </si>
   <si>
-    <t>wait_time</t>
-  </si>
-  <si>
     <t>instruct_custom.wait(wait_time=wait_time)</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>default_x = 0  # 默认x轴坐标值</t>
+  </si>
+  <si>
+    <t>x = 0</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>default_y = 0  # 默认y轴坐标值</t>
+  </si>
+  <si>
+    <t>y = 0</t>
+  </si>
+  <si>
     <t>指令设计</t>
   </si>
   <si>
@@ -343,9 +512,6 @@
     <t>使用【QSpinBox】秒，移动鼠标至 x轴：【自定义QLabel】，y轴：【自定义QLabel】，然后释放【QCombox：左右键】</t>
   </si>
   <si>
-    <t>滚动滚轮</t>
-  </si>
-  <si>
     <t>在 x轴：【自定义QLabel】，y轴：【自定义QLabel】，使用滚轮向【QCombox：方向】滚动【QSpinBox】像素距离</t>
   </si>
   <si>
@@ -415,6 +581,9 @@
     <t>combox项:{function:对应函数, widget:对应控件}</t>
   </si>
   <si>
+    <t>粘贴此处</t>
+  </si>
+  <si>
     <t>'</t>
   </si>
   <si>
@@ -479,6 +648,1036 @@
   </si>
   <si>
     <t>'}}</t>
+  </si>
+  <si>
+    <t>'鼠标操作-移动':{'function':'instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</t>
+  </si>
+  <si>
+    <t>'鼠标操作-按下并拖拽':{'function':'instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</t>
+  </si>
+  <si>
+    <t>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)','widget':'command_widget_mouse_click'},</t>
+  </si>
+  <si>
+    <t>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(button=button)','widget':'command_widget_mouse_down'},</t>
+  </si>
+  <si>
+    <t>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(button=button)','widget':'command_widget_mouse_up'},</t>
+  </si>
+  <si>
+    <t>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(distance=distance)','widget':'command_widget_mouse_scroll'},</t>
+  </si>
+  <si>
+    <t>'键盘操作-输入文本':{'function':'instruct_keyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</t>
+  </si>
+  <si>
+    <t>'键盘操作-敲击':{'function':'instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</t>
+  </si>
+  <si>
+    <t>'键盘操作-使用热键':{'function':'instruct_keyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</t>
+  </si>
+  <si>
+    <t>'键盘操作-按下(不释放)':{'function':'instruct_keyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</t>
+  </si>
+  <si>
+    <t>'键盘操作-释放':{'function':'instruct_keyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</t>
+  </si>
+  <si>
+    <t>'图像操作-全屏截图':{'function':'instruct_pic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</t>
+  </si>
+  <si>
+    <t>'图像操作-区域截图':{'function':'instruct_pic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</t>
+  </si>
+  <si>
+    <t>'图像操作-匹配图片并移动':{'function':'instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</t>
+  </si>
+  <si>
+    <t>'图像操作-匹配图片并点击':{'function':'instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</t>
+  </si>
+  <si>
+    <t>'其他-等待时间':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</t>
+  </si>
+  <si>
+    <t>'其他-等待时间（区间随机）':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_duration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0.25  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认移动所需时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_button = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认鼠标按键</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_interval: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0.1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认每次点击间隔时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_clicks: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认点击次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_presses: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认重复次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_distance = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认滚动距离</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_direction = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>向上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认滚动方向</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_confidence = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0.9  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认寻图精度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_find_model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认寻图模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_area = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F9101"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认区域截图范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_pic_file = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">''  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认图片路径</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_wait_time = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认等待时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_wait_time_min = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认等待时间（区间最小值）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_wait_time_max = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认等待时间（区间最大值）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_message = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">''  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认文本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_hotkeys = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">''  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认热键</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_keys = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">''  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认键</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_key = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">''  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认键</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_x = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴坐标值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default_y = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF8C8C8C"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴坐标值</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -486,18 +1685,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -528,22 +1733,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,6 +1784,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -572,16 +1807,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,55 +1854,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,15 +1869,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF000080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1750EB"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF8C8C8C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF8C8C8C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F9101"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,7 +1952,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +2006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +2018,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,13 +2060,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,133 +2132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,20 +2213,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,30 +2239,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,11 +2260,38 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,10 +2318,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,139 +2330,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,10 +2488,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1224,6 +2506,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,16 +2521,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,10 +2870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1582,1468 +2885,1847 @@
     <col min="5" max="5" width="33.875" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="27.125" customWidth="1"/>
-    <col min="12" max="12" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="11:11">
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B2" s="8"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" ht="15" spans="11:11">
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="J4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="J5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="K5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="I6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="J6" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
+      <c r="K6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="E7" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="J7" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8" t="s">
+      <c r="K7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
+      <c r="J8" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="K8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
+      <c r="J9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="K9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="8" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="s">
+      <c r="E10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="J10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="K10" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="8" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="E11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="J11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="K11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="D12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E13" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7" t="s">
+      <c r="J13" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E14" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="J14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="K14" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8" t="s">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="J15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="K15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="D16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="E16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="J16" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="K16" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
         <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11">
+      <c r="I25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="A29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>96</v>
+      <c r="F29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="8" t="str">
+      <c r="A30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="13" t="str">
         <f t="shared" ref="C30:C35" si="0">$A$30&amp;"-"&amp;B30</f>
         <v>鼠标操作-移动</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="8" t="str">
+      <c r="D30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="13" t="str">
         <f>VLOOKUP(D30,D:G,2,FALSE)</f>
         <v>x,y,duration</v>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F30" s="13" t="str">
         <f>VLOOKUP(D30,D:G,4,FALSE)</f>
         <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="13" t="str">
         <f>"command_widget_"&amp;D30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>100</v>
+      <c r="H30" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="8" t="str">
+      <c r="A31" s="18"/>
+      <c r="B31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="13" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下并拖拽</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="8" t="str">
+      <c r="D31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="13" t="str">
         <f t="shared" ref="E31:E46" si="1">VLOOKUP(D31,D:G,2,FALSE)</f>
         <v>x,y,button,duration</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F31" s="13" t="str">
         <f t="shared" ref="F31:F46" si="2">VLOOKUP(D31,D:G,4,FALSE)</f>
         <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G31" s="13" t="str">
         <f t="shared" ref="G31:G46" si="3">"command_widget_"&amp;D31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>100</v>
+      <c r="H31" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="8" t="str">
+      <c r="A32" s="18"/>
+      <c r="B32" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="13" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-点击</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="8" t="str">
+      <c r="D32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>x,y,button,clicks,interval,duration</v>
-      </c>
-      <c r="F32" s="8" t="str">
+        <v>button,clicks,interval</v>
+      </c>
+      <c r="F32" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</v>
-      </c>
-      <c r="G32" s="8" t="str">
+        <v>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
+      </c>
+      <c r="G32" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_click</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>100</v>
+      <c r="H32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="12"/>
-      <c r="B33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="8" t="str">
+      <c r="A33" s="18"/>
+      <c r="B33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="13" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下(不释放)</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="8" t="str">
+      <c r="D33" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>x,y,button,duration</v>
-      </c>
-      <c r="F33" s="8" t="str">
+        <v>button</v>
+      </c>
+      <c r="F33" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="G33" s="8" t="str">
+        <v>instruct_mouse.mouse_down(button=button)</v>
+      </c>
+      <c r="G33" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_down</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>100</v>
+      <c r="H33" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="8" t="str">
+      <c r="A34" s="18"/>
+      <c r="B34" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="13" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-释放</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="8" t="str">
+      <c r="D34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>x,y,button,duration</v>
-      </c>
-      <c r="F34" s="8" t="str">
+        <v>button</v>
+      </c>
+      <c r="F34" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="G34" s="8" t="str">
+        <v>instruct_mouse.mouse_up(button=button)</v>
+      </c>
+      <c r="G34" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_up</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>100</v>
+      <c r="H34" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="12"/>
-      <c r="B35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="8" t="str">
+      <c r="A35" s="18"/>
+      <c r="B35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="13" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-滚动滚轮</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="8" t="str">
+      <c r="D35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>x,y,distance</v>
-      </c>
-      <c r="F35" s="8" t="str">
+        <v>distance</v>
+      </c>
+      <c r="F35" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</v>
-      </c>
-      <c r="G35" s="8" t="str">
+        <v>instruct_mouse.mouse_scroll(distance=distance)</v>
+      </c>
+      <c r="G35" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_scroll</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>100</v>
+      <c r="H35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="8" t="str">
+      <c r="A36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="13" t="str">
         <f>$A$36&amp;"-"&amp;B36</f>
         <v>键盘操作-输入文本</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="8" t="str">
+      <c r="D36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="13" t="str">
         <f t="shared" si="1"/>
         <v>message,interval</v>
       </c>
-      <c r="F36" s="8" t="str">
+      <c r="F36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
       </c>
-      <c r="G36" s="8" t="str">
+      <c r="G36" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_text</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>100</v>
+      <c r="H36" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="13"/>
-      <c r="B37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="8" t="str">
+      <c r="A37" s="19"/>
+      <c r="B37" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="13" t="str">
         <f>$A$36&amp;"-"&amp;B37</f>
         <v>键盘操作-敲击</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="8" t="str">
+      <c r="D37" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="13" t="str">
         <f t="shared" si="1"/>
         <v>keys,presses,interval</v>
       </c>
-      <c r="F37" s="8" t="str">
+      <c r="F37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
       </c>
-      <c r="G37" s="8" t="str">
+      <c r="G37" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_keys</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>100</v>
+      <c r="H37" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="13"/>
-      <c r="B38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="8" t="str">
+      <c r="A38" s="19"/>
+      <c r="B38" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="13" t="str">
         <f>$A$36&amp;"-"&amp;B38</f>
         <v>键盘操作-使用热键</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="8" t="str">
+      <c r="D38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="13" t="str">
         <f t="shared" si="1"/>
         <v>hotkeys</v>
       </c>
-      <c r="F38" s="8" t="str">
+      <c r="F38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
       </c>
-      <c r="G38" s="8" t="str">
+      <c r="G38" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_hotkey</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>100</v>
+      <c r="H38" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="13"/>
-      <c r="B39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="8" t="str">
+      <c r="A39" s="19"/>
+      <c r="B39" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="13" t="str">
         <f>$A$36&amp;"-"&amp;B39</f>
         <v>键盘操作-按下(不释放)</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="8" t="str">
+      <c r="D39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="13" t="str">
         <f t="shared" si="1"/>
         <v>key</v>
       </c>
-      <c r="F39" s="8" t="str">
+      <c r="F39" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_keyboard.press_down_key(key=key)</v>
       </c>
-      <c r="G39" s="8" t="str">
+      <c r="G39" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_down_key</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>100</v>
+      <c r="H39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="13"/>
-      <c r="B40" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="8" t="str">
+      <c r="A40" s="19"/>
+      <c r="B40" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="13" t="str">
         <f>$A$36&amp;"-"&amp;B40</f>
         <v>键盘操作-释放</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="8" t="str">
+      <c r="D40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="13" t="str">
         <f t="shared" si="1"/>
         <v>key</v>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F40" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_keyboard.press_up_key(key=key)</v>
       </c>
-      <c r="G40" s="8" t="str">
+      <c r="G40" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_up_key</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>100</v>
+      <c r="H40" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="8" t="str">
+      <c r="A41" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="13" t="str">
         <f>$A$41&amp;"-"&amp;B41</f>
         <v>图像操作-全屏截图</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="8" t="str">
+      <c r="D41" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="13" t="str">
         <f t="shared" si="1"/>
         <v>pic_file</v>
       </c>
-      <c r="F41" s="8" t="str">
+      <c r="F41" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
       </c>
-      <c r="G41" s="8" t="str">
+      <c r="G41" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>100</v>
+      <c r="H41" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="13"/>
-      <c r="B42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="8" t="str">
+      <c r="A42" s="19"/>
+      <c r="B42" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="13" t="str">
         <f>$A$41&amp;"-"&amp;B42</f>
         <v>图像操作-区域截图</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="8" t="str">
+      <c r="D42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="13" t="str">
         <f t="shared" si="1"/>
         <v>pic_file,area</v>
       </c>
-      <c r="F42" s="8" t="str">
+      <c r="F42" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
       </c>
-      <c r="G42" s="8" t="str">
+      <c r="G42" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_screenshot_area</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>100</v>
+      <c r="H42" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="13"/>
-      <c r="B43" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="8" t="str">
+      <c r="A43" s="19"/>
+      <c r="B43" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="13" t="str">
         <f>$A$41&amp;"-"&amp;B43</f>
         <v>图像操作-匹配图片并移动</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="8" t="str">
+      <c r="D43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="13" t="str">
         <f t="shared" si="1"/>
         <v>pic_file, duration, find_model</v>
       </c>
-      <c r="F43" s="8" t="str">
+      <c r="F43" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
       </c>
-      <c r="G43" s="8" t="str">
+      <c r="G43" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>100</v>
+      <c r="H43" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="13"/>
-      <c r="B44" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="8" t="str">
+      <c r="A44" s="19"/>
+      <c r="B44" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="13" t="str">
         <f>$A$41&amp;"-"&amp;B44</f>
         <v>图像操作-匹配图片并点击</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="8" t="str">
+      <c r="D44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="13" t="str">
         <f t="shared" si="1"/>
         <v>clicks, button, pic_file, interval, duration, find_model</v>
       </c>
-      <c r="F44" s="8" t="str">
+      <c r="F44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
       </c>
-      <c r="G44" s="8" t="str">
+      <c r="G44" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_click_pic_position</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>100</v>
+      <c r="H44" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="8" t="str">
+      <c r="A45" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="13" t="str">
         <f>$A$45&amp;"-"&amp;B45</f>
         <v>其他-等待时间</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="8" t="str">
+      <c r="D45" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="13" t="str">
         <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
-      <c r="F45" s="8" t="str">
+      <c r="F45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
-      <c r="G45" s="8" t="str">
+      <c r="G45" s="13" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_wait</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>100</v>
+      <c r="H45" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="8" t="str">
+      <c r="A46" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="13" t="str">
         <f>$A$45&amp;"-"&amp;B46</f>
         <v>其他-等待时间（区间随机）</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="8" t="str">
+      <c r="D46" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="13" t="str">
         <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
-      <c r="F46" s="8" t="str">
+      <c r="F46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" t="str">
+      <c r="G46" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="21" t="str">
         <f>F30</f>
         <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" t="str">
+      <c r="E53" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53" s="21" t="str">
         <f>G30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" t="str">
-        <f>B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53&amp;H53</f>
+      <c r="G53" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H53" s="22" t="str">
+        <f>A53&amp;B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53</f>
         <v>'鼠标操作-移动':{'function':'instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</v>
       </c>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" ref="E54:E69" si="4">F31</f>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="21" t="str">
+        <f t="shared" ref="D54:D69" si="4">F31</f>
         <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" ref="G54:G69" si="5">G31</f>
+      <c r="E54" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="21" t="str">
+        <f t="shared" ref="F54:F69" si="5">G31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" t="str">
-        <f t="shared" ref="I54:I69" si="6">B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54&amp;H54</f>
+      <c r="G54" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H54" s="22" t="str">
+        <f t="shared" ref="H54:H69" si="6">A54&amp;B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54</f>
         <v>'鼠标操作-按下并拖拽':{'function':'instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</v>
       </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" t="str">
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" t="str">
+        <v>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F55" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_click</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" t="str">
+      <c r="G55" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H55" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(x=x,y=y,button=button,clicks=clicks,interval=interval,duration=duration)','widget':'command_widget_mouse_click'},</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" t="str">
+        <v>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)','widget':'command_widget_mouse_click'},</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" t="str">
+        <v>instruct_mouse.mouse_down(button=button)</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_down</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I56" t="str">
+      <c r="G56" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H56" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(x=x,y=y,button=button,duration=duration)','widget':'command_widget_mouse_down'},</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" t="str">
+        <v>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(button=button)','widget':'command_widget_mouse_down'},</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G57" t="str">
+        <v>instruct_mouse.mouse_up(button=button)</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_up</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" t="str">
+      <c r="G57" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(x=x,y=y,button=button,duration=duration)','widget':'command_widget_mouse_up'},</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" t="str">
+        <v>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(button=button)','widget':'command_widget_mouse_up'},</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G58" t="str">
+        <v>instruct_mouse.mouse_scroll(distance=distance)</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_scroll</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" t="str">
+      <c r="G58" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H58" s="22" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(x=x,y=y,distance=distance)','widget':'command_widget_mouse_scroll'},</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" t="str">
+        <v>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(distance=distance)','widget':'command_widget_mouse_scroll'},</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" t="str">
+      <c r="E59" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_text</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" t="str">
+      <c r="G59" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H59" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'键盘操作-输入文本':{'function':'instruct_keyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</v>
       </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" t="str">
+      <c r="E60" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_keys</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" t="str">
+      <c r="G60" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'键盘操作-敲击':{'function':'instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</v>
       </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" t="str">
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" t="str">
+      <c r="E61" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_hotkey</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" t="str">
+      <c r="G61" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'键盘操作-使用热键':{'function':'instruct_keyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</v>
       </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" t="str">
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_keyboard.press_down_key(key=key)</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" t="str">
+      <c r="E62" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_down_key</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I62" t="str">
+      <c r="G62" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'键盘操作-按下(不释放)':{'function':'instruct_keyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</v>
       </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" t="str">
+      <c r="I62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_keyboard.press_up_key(key=key)</v>
       </c>
-      <c r="F63" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" t="str">
+      <c r="E63" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_up_key</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" t="str">
+      <c r="G63" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'键盘操作-释放':{'function':'instruct_keyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</v>
       </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" t="str">
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
       </c>
-      <c r="F64" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" t="str">
+      <c r="E64" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I64" t="str">
+      <c r="G64" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'图像操作-全屏截图':{'function':'instruct_pic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</v>
       </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" t="str">
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" t="str">
+      <c r="E65" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_screenshot_area</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" t="str">
+      <c r="G65" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'图像操作-区域截图':{'function':'instruct_pic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</v>
       </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" t="str">
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" t="str">
+      <c r="E66" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
-      <c r="H66" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I66" t="str">
+      <c r="G66" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'图像操作-匹配图片并移动':{'function':'instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</v>
       </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" t="str">
+      <c r="I66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G67" t="str">
+      <c r="E67" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_click_pic_position</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" t="str">
+      <c r="G67" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'图像操作-匹配图片并点击':{'function':'instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</v>
       </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" t="str">
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="str">
+      <c r="E68" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_wait</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I68" t="str">
+      <c r="G68" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'其他-等待时间':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</v>
       </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" t="str">
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="21" t="str">
         <f t="shared" si="4"/>
         <v>instruct_custom.wait(wait_time=wait_time)</v>
       </c>
-      <c r="F69" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="str">
+      <c r="E69" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F69" s="21" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_wait_random</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I69" t="str">
+      <c r="G69" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" s="22" t="str">
         <f t="shared" si="6"/>
         <v>'其他-等待时间（区间随机）':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</v>
       </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
@@ -3055,8 +4737,353 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B23"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="12.625"/>
+    <col min="10" max="10" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="4:6">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="4:6">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="4:5">
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="4:6">
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="4:6">
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="4:6">
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="4:6">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="4:6">
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" ht="15"/>
+    <row r="28" ht="15" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" ht="15" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18765" windowHeight="8850"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="230">
   <si>
     <t>灰色函数为内部函数，不对外使用</t>
   </si>
@@ -65,7 +65,7 @@
     <t>鼠标操作</t>
   </si>
   <si>
-    <t>instruct_mouse</t>
+    <t>InstructMouse</t>
   </si>
   <si>
     <t>获取鼠标当前位置</t>
@@ -77,7 +77,7 @@
     <t>x,y</t>
   </si>
   <si>
-    <t>instruct_mouse.get_mouse_position()</t>
+    <t>InstructMouse.get_mouse_position()</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -101,7 +101,7 @@
     <t>x,y,duration</t>
   </si>
   <si>
-    <t>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</t>
+    <t>InstructMouse.move_mouse_to_position(x=x,y=y,duration=duration)</t>
   </si>
   <si>
     <t>button</t>
@@ -122,7 +122,7 @@
     <t>x,y,button,duration</t>
   </si>
   <si>
-    <t>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</t>
+    <t>InstructMouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</t>
   </si>
   <si>
     <t>interval</t>
@@ -143,7 +143,7 @@
     <t>button,clicks,interval</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</t>
+    <t>InstructMouse.mouse_click(button=button,clicks=clicks,interval=interval)</t>
   </si>
   <si>
     <t>clicks</t>
@@ -161,7 +161,7 @@
     <t>mouse_down</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_down(button=button)</t>
+    <t>InstructMouse.mouse_down(button=button)</t>
   </si>
   <si>
     <t>presses</t>
@@ -179,7 +179,7 @@
     <t>mouse_up</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_up(button=button)</t>
+    <t>InstructMouse.mouse_up(button=button)</t>
   </si>
   <si>
     <t>distance</t>
@@ -197,7 +197,7 @@
     <t>mouse_scroll</t>
   </si>
   <si>
-    <t>instruct_mouse.mouse_scroll(distance=distance)</t>
+    <t>InstructMouse.mouse_scroll(distance=distance)</t>
   </si>
   <si>
     <t>default_direction = '向上'  # 默认滚动方向</t>
@@ -206,7 +206,7 @@
     <t>键盘操作</t>
   </si>
   <si>
-    <t>instruct_keyboard</t>
+    <t>InstructKeyboard</t>
   </si>
   <si>
     <t>输入字符串</t>
@@ -218,7 +218,7 @@
     <t>message,interval</t>
   </si>
   <si>
-    <t>instruct_keyboard.press_text(message=message,interval=interval)</t>
+    <t>InstructKeyboard.press_text(message=message,interval=interval)</t>
   </si>
   <si>
     <t>confidence</t>
@@ -236,7 +236,7 @@
     <t>keys,presses,interval</t>
   </si>
   <si>
-    <t>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</t>
+    <t>InstructKeyboard.press_keys(keys=keys,presses=presses,interval=interval)</t>
   </si>
   <si>
     <t>find_model</t>
@@ -257,7 +257,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>instruct_keyboard.press_down_key(key=key)</t>
+    <t>InstructKeyboard.press_down_key(key=key)</t>
   </si>
   <si>
     <t>area</t>
@@ -275,7 +275,7 @@
     <t>press_up_key</t>
   </si>
   <si>
-    <t>instruct_keyboard.press_up_key(key=key)</t>
+    <t>InstructKeyboard.press_up_key(key=key)</t>
   </si>
   <si>
     <t>pic_file</t>
@@ -296,7 +296,7 @@
     <t>hotkeys</t>
   </si>
   <si>
-    <t>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</t>
+    <t>InstructKeyboard.press_hotkey(hotkeys=hotkeys)</t>
   </si>
   <si>
     <t>wait_time</t>
@@ -311,7 +311,7 @@
     <t>图像操作</t>
   </si>
   <si>
-    <t>instruct_pic</t>
+    <t>InstructPic</t>
   </si>
   <si>
     <t>截全屏并保存图片</t>
@@ -320,7 +320,7 @@
     <t>screenshot_fullscreen</t>
   </si>
   <si>
-    <t>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</t>
+    <t>InstructPic.screenshot_fullscreen(pic_file=pic_file)</t>
   </si>
   <si>
     <t>default_wait_time_min = 1  # 默认等待时间（区间最小值）</t>
@@ -338,7 +338,7 @@
     <t>pic_file,area</t>
   </si>
   <si>
-    <t>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</t>
+    <t>InstructPic.screenshot_area(pic_file=pic_file,area=area)</t>
   </si>
   <si>
     <t>default_wait_time_max = 1  # 默认等待时间（区间最大值）</t>
@@ -353,7 +353,7 @@
     <t>pic_file,confidence</t>
   </si>
   <si>
-    <t>instruct_pic.search_pic_first_position(pic_file=pic_file,confidence=confidence)</t>
+    <t>InstructPic.search_pic_first_position(pic_file=pic_file,confidence=confidence)</t>
   </si>
   <si>
     <t>message</t>
@@ -374,7 +374,7 @@
     <t>[(x,y),(x_2,y_2)]</t>
   </si>
   <si>
-    <t>instruct_pic.search_pic_all_position(pic_file=pic_file,confidence=confidence)</t>
+    <t>InstructPic.search_pic_all_position(pic_file=pic_file,confidence=confidence)</t>
   </si>
   <si>
     <t>default_hotkeys = ''  # 默认热键</t>
@@ -392,7 +392,7 @@
     <t>pic_file, duration, find_model</t>
   </si>
   <si>
-    <t>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</t>
+    <t>InstructPic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</t>
   </si>
   <si>
     <t>keys</t>
@@ -413,7 +413,7 @@
     <t>clicks, button, pic_file, interval, duration, find_model</t>
   </si>
   <si>
-    <t>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</t>
+    <t>InstructPic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</t>
   </si>
   <si>
     <t>default_key = ''  # 默认键</t>
@@ -425,7 +425,7 @@
     <t>其他指令</t>
   </si>
   <si>
-    <t>instruct_custom</t>
+    <t>InstructCustom</t>
   </si>
   <si>
     <t>等待</t>
@@ -434,7 +434,7 @@
     <t>wait</t>
   </si>
   <si>
-    <t>instruct_custom.wait(wait_time=wait_time)</t>
+    <t>InstructCustom.wait(wait_time=wait_time)</t>
   </si>
   <si>
     <t>x</t>
@@ -650,58 +650,13 @@
     <t>'}}</t>
   </si>
   <si>
-    <t>'鼠标操作-移动':{'function':'instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</t>
-  </si>
-  <si>
-    <t>'鼠标操作-按下并拖拽':{'function':'instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</t>
-  </si>
-  <si>
-    <t>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)','widget':'command_widget_mouse_click'},</t>
-  </si>
-  <si>
-    <t>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(button=button)','widget':'command_widget_mouse_down'},</t>
-  </si>
-  <si>
-    <t>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(button=button)','widget':'command_widget_mouse_up'},</t>
-  </si>
-  <si>
-    <t>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(distance=distance)','widget':'command_widget_mouse_scroll'},</t>
-  </si>
-  <si>
-    <t>'键盘操作-输入文本':{'function':'instruct_keyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</t>
-  </si>
-  <si>
-    <t>'键盘操作-敲击':{'function':'instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</t>
-  </si>
-  <si>
-    <t>'键盘操作-使用热键':{'function':'instruct_keyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</t>
-  </si>
-  <si>
-    <t>'键盘操作-按下(不释放)':{'function':'instruct_keyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</t>
-  </si>
-  <si>
-    <t>'键盘操作-释放':{'function':'instruct_keyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</t>
-  </si>
-  <si>
-    <t>'图像操作-全屏截图':{'function':'instruct_pic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</t>
-  </si>
-  <si>
-    <t>'图像操作-区域截图':{'function':'instruct_pic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</t>
-  </si>
-  <si>
-    <t>'图像操作-匹配图片并移动':{'function':'instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</t>
-  </si>
-  <si>
-    <t>'图像操作-匹配图片并点击':{'function':'instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</t>
-  </si>
-  <si>
-    <t>'其他-等待时间':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</t>
-  </si>
-  <si>
-    <t>'其他-等待时间（区间随机）':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_duration: </t>
     </r>
     <r>
@@ -758,6 +713,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_button = </t>
     </r>
     <r>
@@ -813,6 +774,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_interval: </t>
     </r>
     <r>
@@ -869,6 +836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_clicks: </t>
     </r>
     <r>
@@ -925,6 +898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_presses: </t>
     </r>
     <r>
@@ -981,6 +960,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_distance = </t>
     </r>
     <r>
@@ -1017,6 +1002,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_direction = </t>
     </r>
     <r>
@@ -1072,6 +1063,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_confidence = </t>
     </r>
     <r>
@@ -1108,6 +1105,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_find_model = </t>
     </r>
     <r>
@@ -1163,6 +1166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_area = </t>
     </r>
     <r>
@@ -1279,6 +1288,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_pic_file = </t>
     </r>
     <r>
@@ -1315,6 +1330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_wait_time = </t>
     </r>
     <r>
@@ -1351,6 +1372,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_wait_time_min = </t>
     </r>
     <r>
@@ -1387,6 +1414,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_wait_time_max = </t>
     </r>
     <r>
@@ -1423,6 +1456,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_message = </t>
     </r>
     <r>
@@ -1459,6 +1498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_hotkeys = </t>
     </r>
     <r>
@@ -1495,6 +1540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_keys = </t>
     </r>
     <r>
@@ -1531,6 +1582,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_key = </t>
     </r>
     <r>
@@ -1567,6 +1624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_x = </t>
     </r>
     <r>
@@ -1624,6 +1687,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">default_y = </t>
     </r>
     <r>
@@ -1685,9 +1754,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1726,14 +1795,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1747,45 +1877,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1807,34 +1899,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1847,14 +1916,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1862,8 +1923,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1925,7 +1994,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,7 +2021,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,13 +2099,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,109 +2177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2102,43 +2189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,17 +2276,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2243,21 +2300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2267,11 +2309,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2283,15 +2340,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2310,6 +2358,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2318,10 +2381,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2330,137 +2393,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2468,12 +2531,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2524,26 +2581,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2870,10 +2909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2891,22 +2930,22 @@
     <col min="11" max="11" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" ht="15" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" ht="15" spans="11:11">
-      <c r="K3" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="11:11">
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -2915,607 +2954,607 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>72</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>79</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>85</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>92</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="21" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="21" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11" t="s">
         <v>111</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>118</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
         <v>138</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="9:11">
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3525,28 +3564,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>151</v>
       </c>
       <c r="I29" t="s">
@@ -3554,536 +3593,536 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="11" t="str">
         <f t="shared" ref="C30:C35" si="0">$A$30&amp;"-"&amp;B30</f>
         <v>鼠标操作-移动</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="13" t="str">
+      <c r="E30" s="11" t="str">
         <f>VLOOKUP(D30,D:G,2,FALSE)</f>
         <v>x,y,duration</v>
       </c>
-      <c r="F30" s="13" t="str">
+      <c r="F30" s="11" t="str">
         <f>VLOOKUP(D30,D:G,4,FALSE)</f>
-        <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
-      </c>
-      <c r="G30" s="13" t="str">
+        <v>InstructMouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
+      </c>
+      <c r="G30" s="11" t="str">
         <f>"command_widget_"&amp;D30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下并拖拽</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="13" t="str">
+      <c r="E31" s="11" t="str">
         <f t="shared" ref="E31:E46" si="1">VLOOKUP(D31,D:G,2,FALSE)</f>
         <v>x,y,button,duration</v>
       </c>
-      <c r="F31" s="13" t="str">
+      <c r="F31" s="11" t="str">
         <f t="shared" ref="F31:F46" si="2">VLOOKUP(D31,D:G,4,FALSE)</f>
-        <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="G31" s="13" t="str">
+        <v>InstructMouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
+      </c>
+      <c r="G31" s="11" t="str">
         <f t="shared" ref="G31:G46" si="3">"command_widget_"&amp;D31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-点击</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="13" t="str">
+      <c r="E32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>button,clicks,interval</v>
       </c>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
-      </c>
-      <c r="G32" s="13" t="str">
+        <v>InstructMouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
+      </c>
+      <c r="G32" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_click</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="18"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-按下(不释放)</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="13" t="str">
+      <c r="E33" s="11" t="str">
         <f t="shared" si="1"/>
         <v>button</v>
       </c>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_down(button=button)</v>
-      </c>
-      <c r="G33" s="13" t="str">
+        <v>InstructMouse.mouse_down(button=button)</v>
+      </c>
+      <c r="G33" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_down</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="18"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-释放</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="13" t="str">
+      <c r="E34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>button</v>
       </c>
-      <c r="F34" s="13" t="str">
+      <c r="F34" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_up(button=button)</v>
-      </c>
-      <c r="G34" s="13" t="str">
+        <v>InstructMouse.mouse_up(button=button)</v>
+      </c>
+      <c r="G34" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_up</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="18"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>鼠标操作-滚动滚轮</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="13" t="str">
+      <c r="E35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>distance</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_mouse.mouse_scroll(distance=distance)</v>
-      </c>
-      <c r="G35" s="13" t="str">
+        <v>InstructMouse.mouse_scroll(distance=distance)</v>
+      </c>
+      <c r="G35" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_mouse_scroll</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="11" t="str">
         <f>$A$36&amp;"-"&amp;B36</f>
         <v>键盘操作-输入文本</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="13" t="str">
+      <c r="E36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>message,interval</v>
       </c>
-      <c r="F36" s="13" t="str">
+      <c r="F36" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
-      </c>
-      <c r="G36" s="13" t="str">
+        <v>InstructKeyboard.press_text(message=message,interval=interval)</v>
+      </c>
+      <c r="G36" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_text</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="19"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="13" t="str">
+      <c r="C37" s="11" t="str">
         <f>$A$36&amp;"-"&amp;B37</f>
         <v>键盘操作-敲击</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>keys,presses,interval</v>
       </c>
-      <c r="F37" s="13" t="str">
+      <c r="F37" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
-      </c>
-      <c r="G37" s="13" t="str">
+        <v>InstructKeyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
+      </c>
+      <c r="G37" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_keys</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="19"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="11" t="str">
         <f>$A$36&amp;"-"&amp;B38</f>
         <v>键盘操作-使用热键</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>hotkeys</v>
       </c>
-      <c r="F38" s="13" t="str">
+      <c r="F38" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
-      </c>
-      <c r="G38" s="13" t="str">
+        <v>InstructKeyboard.press_hotkey(hotkeys=hotkeys)</v>
+      </c>
+      <c r="G38" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_hotkey</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="I38" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="19"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="11" t="str">
         <f>$A$36&amp;"-"&amp;B39</f>
         <v>键盘操作-按下(不释放)</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="13" t="str">
+      <c r="E39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>key</v>
       </c>
-      <c r="F39" s="13" t="str">
+      <c r="F39" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_keyboard.press_down_key(key=key)</v>
-      </c>
-      <c r="G39" s="13" t="str">
+        <v>InstructKeyboard.press_down_key(key=key)</v>
+      </c>
+      <c r="G39" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_down_key</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="19"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="13" t="str">
+      <c r="C40" s="11" t="str">
         <f>$A$36&amp;"-"&amp;B40</f>
         <v>键盘操作-释放</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="13" t="str">
+      <c r="E40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>key</v>
       </c>
-      <c r="F40" s="13" t="str">
+      <c r="F40" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_keyboard.press_up_key(key=key)</v>
-      </c>
-      <c r="G40" s="13" t="str">
+        <v>InstructKeyboard.press_up_key(key=key)</v>
+      </c>
+      <c r="G40" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_press_up_key</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C41" s="11" t="str">
         <f>$A$41&amp;"-"&amp;B41</f>
         <v>图像操作-全屏截图</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="13" t="str">
+      <c r="E41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>pic_file</v>
       </c>
-      <c r="F41" s="13" t="str">
+      <c r="F41" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
-      </c>
-      <c r="G41" s="13" t="str">
+        <v>InstructPic.screenshot_fullscreen(pic_file=pic_file)</v>
+      </c>
+      <c r="G41" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="I41" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="19"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C42" s="11" t="str">
         <f>$A$41&amp;"-"&amp;B42</f>
         <v>图像操作-区域截图</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="13" t="str">
+      <c r="E42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>pic_file,area</v>
       </c>
-      <c r="F42" s="13" t="str">
+      <c r="F42" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
-      </c>
-      <c r="G42" s="13" t="str">
+        <v>InstructPic.screenshot_area(pic_file=pic_file,area=area)</v>
+      </c>
+      <c r="G42" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_screenshot_area</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="19"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="11" t="str">
         <f>$A$41&amp;"-"&amp;B43</f>
         <v>图像操作-匹配图片并移动</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="13" t="str">
+      <c r="E43" s="11" t="str">
         <f t="shared" si="1"/>
         <v>pic_file, duration, find_model</v>
       </c>
-      <c r="F43" s="13" t="str">
+      <c r="F43" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
-      </c>
-      <c r="G43" s="13" t="str">
+        <v>InstructPic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="G43" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="I43" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="19"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="13" t="str">
+      <c r="C44" s="11" t="str">
         <f>$A$41&amp;"-"&amp;B44</f>
         <v>图像操作-匹配图片并点击</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="13" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>clicks, button, pic_file, interval, duration, find_model</v>
       </c>
-      <c r="F44" s="13" t="str">
+      <c r="F44" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
-      </c>
-      <c r="G44" s="13" t="str">
+        <v>InstructPic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="G44" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_click_pic_position</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="13" t="str">
+      <c r="C45" s="11" t="str">
         <f>$A$45&amp;"-"&amp;B45</f>
         <v>其他-等待时间</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="13" t="str">
+      <c r="E45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
-      <c r="F45" s="13" t="str">
+      <c r="F45" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_custom.wait(wait_time=wait_time)</v>
-      </c>
-      <c r="G45" s="13" t="str">
+        <v>InstructCustom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="G45" s="11" t="str">
         <f t="shared" si="3"/>
         <v>command_widget_wait</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="13" t="str">
+      <c r="C46" s="11" t="str">
         <f>$A$45&amp;"-"&amp;B46</f>
         <v>其他-等待时间（区间随机）</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="13" t="str">
+      <c r="E46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>wait_time</v>
       </c>
-      <c r="F46" s="13" t="str">
+      <c r="F46" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>instruct_custom.wait(wait_time=wait_time)</v>
-      </c>
-      <c r="G46" s="15" t="s">
+        <v>InstructCustom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="G46" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="28" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="20" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4091,637 +4130,552 @@
       <c r="A52" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="18" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="21" t="str">
+      <c r="D53" s="11" t="str">
         <f>F30</f>
-        <v>instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
-      </c>
-      <c r="E53" s="29" t="s">
+        <v>InstructMouse.move_mouse_to_position(x=x,y=y,duration=duration)</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="21" t="str">
+      <c r="F53" s="11" t="str">
         <f>G30</f>
         <v>command_widget_move_mouse_to_position</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H53" s="22" t="str">
+      <c r="H53" s="13" t="str">
         <f>A53&amp;B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53</f>
-        <v>'鼠标操作-移动':{'function':'instruct_mouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</v>
+        <v>'鼠标操作-移动':{'function':'InstructMouse.move_mouse_to_position(x=x,y=y,duration=duration)','widget':'command_widget_move_mouse_to_position'},</v>
       </c>
       <c r="I53" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="21" t="str">
+      <c r="D54" s="11" t="str">
         <f t="shared" ref="D54:D69" si="4">F31</f>
-        <v>instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
-      </c>
-      <c r="E54" s="29" t="s">
+        <v>InstructMouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)</v>
+      </c>
+      <c r="E54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F54" s="21" t="str">
+      <c r="F54" s="11" t="str">
         <f t="shared" ref="F54:F69" si="5">G31</f>
         <v>command_widget_drag_mouse_to_position</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H54" s="22" t="str">
+      <c r="H54" s="13" t="str">
         <f t="shared" ref="H54:H69" si="6">A54&amp;B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54</f>
-        <v>'鼠标操作-按下并拖拽':{'function':'instruct_mouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</v>
+        <v>'鼠标操作-按下并拖拽':{'function':'InstructMouse.drag_mouse_to_position(x=x,y=y,button=button,duration=duration)','widget':'command_widget_drag_mouse_to_position'},</v>
       </c>
       <c r="I54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="21" t="str">
+      <c r="D55" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
-      </c>
-      <c r="E55" s="29" t="s">
+        <v>InstructMouse.mouse_click(button=button,clicks=clicks,interval=interval)</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="21" t="str">
+      <c r="F55" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_click</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="22" t="str">
+      <c r="H55" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-点击':{'function':'instruct_mouse.mouse_click(button=button,clicks=clicks,interval=interval)','widget':'command_widget_mouse_click'},</v>
+        <v>'鼠标操作-点击':{'function':'InstructMouse.mouse_click(button=button,clicks=clicks,interval=interval)','widget':'command_widget_mouse_click'},</v>
       </c>
       <c r="I55" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="21" t="str">
+      <c r="D56" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_down(button=button)</v>
-      </c>
-      <c r="E56" s="29" t="s">
+        <v>InstructMouse.mouse_down(button=button)</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F56" s="21" t="str">
+      <c r="F56" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_down</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H56" s="22" t="str">
+      <c r="H56" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-按下(不释放)':{'function':'instruct_mouse.mouse_down(button=button)','widget':'command_widget_mouse_down'},</v>
+        <v>'鼠标操作-按下(不释放)':{'function':'InstructMouse.mouse_down(button=button)','widget':'command_widget_mouse_down'},</v>
       </c>
       <c r="I56" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D57" s="21" t="str">
+      <c r="D57" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_up(button=button)</v>
-      </c>
-      <c r="E57" s="29" t="s">
+        <v>InstructMouse.mouse_up(button=button)</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F57" s="21" t="str">
+      <c r="F57" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_up</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="22" t="str">
+      <c r="H57" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-释放':{'function':'instruct_mouse.mouse_up(button=button)','widget':'command_widget_mouse_up'},</v>
+        <v>'鼠标操作-释放':{'function':'InstructMouse.mouse_up(button=button)','widget':'command_widget_mouse_up'},</v>
       </c>
       <c r="I57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="21" t="str">
+      <c r="D58" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_mouse.mouse_scroll(distance=distance)</v>
-      </c>
-      <c r="E58" s="29" t="s">
+        <v>InstructMouse.mouse_scroll(distance=distance)</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F58" s="21" t="str">
+      <c r="F58" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_mouse_scroll</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="22" t="str">
+      <c r="H58" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'鼠标操作-滚动滚轮':{'function':'instruct_mouse.mouse_scroll(distance=distance)','widget':'command_widget_mouse_scroll'},</v>
+        <v>'鼠标操作-滚动滚轮':{'function':'InstructMouse.mouse_scroll(distance=distance)','widget':'command_widget_mouse_scroll'},</v>
       </c>
       <c r="I58" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="21" t="str">
+      <c r="D59" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_keyboard.press_text(message=message,interval=interval)</v>
-      </c>
-      <c r="E59" s="29" t="s">
+        <v>InstructKeyboard.press_text(message=message,interval=interval)</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="21" t="str">
+      <c r="F59" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_text</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H59" s="22" t="str">
+      <c r="H59" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'键盘操作-输入文本':{'function':'instruct_keyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</v>
+        <v>'键盘操作-输入文本':{'function':'InstructKeyboard.press_text(message=message,interval=interval)','widget':'command_widget_press_text'},</v>
       </c>
       <c r="I59" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="21" t="str">
+      <c r="D60" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
-      </c>
-      <c r="E60" s="29" t="s">
+        <v>InstructKeyboard.press_keys(keys=keys,presses=presses,interval=interval)</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="21" t="str">
+      <c r="F60" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_keys</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H60" s="22" t="str">
+      <c r="H60" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'键盘操作-敲击':{'function':'instruct_keyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</v>
+        <v>'键盘操作-敲击':{'function':'InstructKeyboard.press_keys(keys=keys,presses=presses,interval=interval)','widget':'command_widget_press_keys'},</v>
       </c>
       <c r="I60" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="21" t="str">
+      <c r="D61" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_keyboard.press_hotkey(hotkeys=hotkeys)</v>
-      </c>
-      <c r="E61" s="29" t="s">
+        <v>InstructKeyboard.press_hotkey(hotkeys=hotkeys)</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="21" t="str">
+      <c r="F61" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_hotkey</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H61" s="22" t="str">
+      <c r="H61" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'键盘操作-使用热键':{'function':'instruct_keyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</v>
+        <v>'键盘操作-使用热键':{'function':'InstructKeyboard.press_hotkey(hotkeys=hotkeys)','widget':'command_widget_press_hotkey'},</v>
       </c>
       <c r="I61" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D62" s="21" t="str">
+      <c r="D62" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_keyboard.press_down_key(key=key)</v>
-      </c>
-      <c r="E62" s="29" t="s">
+        <v>InstructKeyboard.press_down_key(key=key)</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="21" t="str">
+      <c r="F62" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_down_key</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="G62" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="22" t="str">
+      <c r="H62" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'键盘操作-按下(不释放)':{'function':'instruct_keyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</v>
+        <v>'键盘操作-按下(不释放)':{'function':'InstructKeyboard.press_down_key(key=key)','widget':'command_widget_press_down_key'},</v>
       </c>
       <c r="I62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="21" t="str">
+      <c r="D63" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_keyboard.press_up_key(key=key)</v>
-      </c>
-      <c r="E63" s="29" t="s">
+        <v>InstructKeyboard.press_up_key(key=key)</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F63" s="21" t="str">
+      <c r="F63" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_press_up_key</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H63" s="22" t="str">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'键盘操作-释放':{'function':'instruct_keyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</v>
+        <v>'键盘操作-释放':{'function':'InstructKeyboard.press_up_key(key=key)','widget':'command_widget_press_up_key'},</v>
       </c>
       <c r="I63" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="21" t="str">
+      <c r="D64" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_pic.screenshot_fullscreen(pic_file=pic_file)</v>
-      </c>
-      <c r="E64" s="29" t="s">
+        <v>InstructPic.screenshot_fullscreen(pic_file=pic_file)</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="21" t="str">
+      <c r="F64" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_screenshot_fullscreen</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H64" s="22" t="str">
+      <c r="H64" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'图像操作-全屏截图':{'function':'instruct_pic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</v>
+        <v>'图像操作-全屏截图':{'function':'InstructPic.screenshot_fullscreen(pic_file=pic_file)','widget':'command_widget_screenshot_fullscreen'},</v>
       </c>
       <c r="I64" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="21" t="str">
+      <c r="D65" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_pic.screenshot_area(pic_file=pic_file,area=area)</v>
-      </c>
-      <c r="E65" s="29" t="s">
+        <v>InstructPic.screenshot_area(pic_file=pic_file,area=area)</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="21" t="str">
+      <c r="F65" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_screenshot_area</v>
       </c>
-      <c r="G65" s="29" t="s">
+      <c r="G65" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H65" s="22" t="str">
+      <c r="H65" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'图像操作-区域截图':{'function':'instruct_pic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</v>
+        <v>'图像操作-区域截图':{'function':'InstructPic.screenshot_area(pic_file=pic_file,area=area)','widget':'command_widget_screenshot_area'},</v>
       </c>
       <c r="I65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D66" s="21" t="str">
+      <c r="D66" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
-      </c>
-      <c r="E66" s="29" t="s">
+        <v>InstructPic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="21" t="str">
+      <c r="F66" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_move_to_pic_position</v>
       </c>
-      <c r="G66" s="29" t="s">
+      <c r="G66" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="22" t="str">
+      <c r="H66" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'图像操作-匹配图片并移动':{'function':'instruct_pic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</v>
+        <v>'图像操作-匹配图片并移动':{'function':'InstructPic.move_to_pic_position(pic_file=pic_file,duration=duration,find_model=find_model)','widget':'command_widget_move_to_pic_position'},</v>
       </c>
       <c r="I66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="21" t="str">
+      <c r="D67" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
-      </c>
-      <c r="E67" s="29" t="s">
+        <v>InstructPic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F67" s="21" t="str">
+      <c r="F67" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_click_pic_position</v>
       </c>
-      <c r="G67" s="29" t="s">
+      <c r="G67" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H67" s="22" t="str">
+      <c r="H67" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'图像操作-匹配图片并点击':{'function':'instruct_pic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</v>
+        <v>'图像操作-匹配图片并点击':{'function':'InstructPic.click_pic_position(clicks=clicks,button=button,pic_file=pic_file,interval=interval,duration=duration,find_model=find_model)','widget':'command_widget_click_pic_position'},</v>
       </c>
       <c r="I67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="21" t="str">
+      <c r="D68" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_custom.wait(wait_time=wait_time)</v>
-      </c>
-      <c r="E68" s="29" t="s">
+        <v>InstructCustom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F68" s="21" t="str">
+      <c r="F68" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_wait</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="H68" s="22" t="str">
+      <c r="H68" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'其他-等待时间':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</v>
+        <v>'其他-等待时间':{'function':'InstructCustom.wait(wait_time=wait_time)','widget':'command_widget_wait'},</v>
       </c>
       <c r="I68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="21" t="str">
+      <c r="D69" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>instruct_custom.wait(wait_time=wait_time)</v>
-      </c>
-      <c r="E69" s="29" t="s">
+        <v>InstructCustom.wait(wait_time=wait_time)</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F69" s="21" t="str">
+      <c r="F69" s="11" t="str">
         <f t="shared" si="5"/>
         <v>command_widget_wait_random</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="22" t="str">
+      <c r="H69" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>'其他-等待时间（区间随机）':{'function':'instruct_custom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</v>
+        <v>'其他-等待时间（区间随机）':{'function':'InstructCustom.wait(wait_time=wait_time)','widget':'command_widget_wait_random'}}</v>
       </c>
       <c r="I69" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="8:8">
-      <c r="H73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="8:8">
-      <c r="H74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8">
-      <c r="H75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="8:8">
-      <c r="H76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="8:8">
-      <c r="H77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="8:8">
-      <c r="H78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="8:8">
-      <c r="H79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="8:8">
-      <c r="H80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="8:8">
-      <c r="H81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="8:8">
-      <c r="H82" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="8:8">
-      <c r="H83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="8:8">
-      <c r="H84" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="85" spans="8:8">
-      <c r="H85" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8">
-      <c r="H86" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="8:8">
-      <c r="H87" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8">
-      <c r="H88" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="8:8">
-      <c r="H89" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4779,209 +4733,209 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="4:6">
+    <row r="2" spans="4:6">
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="4:6">
+    <row r="6" spans="4:6">
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="4:5">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
       <c r="D9" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="4:6">
+    <row r="11" spans="4:6">
       <c r="D11" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="D16" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="4:6">
+    <row r="17" spans="4:6">
       <c r="D17" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="4:6">
+    <row r="18" spans="4:6">
       <c r="D18" t="s">
         <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="4:6">
+    <row r="19" spans="4:6">
       <c r="D19" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="4:6">
+    <row r="20" spans="4:6">
       <c r="D20" t="s">
         <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:6">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -4989,7 +4943,7 @@
         <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>144</v>
@@ -4999,7 +4953,7 @@
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
@@ -5011,19 +4965,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" ht="15"/>
-    <row r="28" ht="15" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -5034,53 +4987,53 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" ht="15" spans="1:5">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
